--- a/Files/Results/Prediction of Molecular Dynamics Trajectories.xlsx
+++ b/Files/Results/Prediction of Molecular Dynamics Trajectories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\UFMG\Lab. de Bioinformática e Sistemas\Mestrado\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F6EE4B-2E06-4C3E-A022-1A4F035597E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65956899-A4BD-469C-B696-1F183EDFA669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07FE9552-7B95-4604-B737-4225999B9C4F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Coluna1</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Iota</t>
   </si>
   <si>
-    <t>Lambda</t>
-  </si>
-  <si>
     <t>Kappa</t>
   </si>
   <si>
@@ -71,15 +68,9 @@
     <t>N439R</t>
   </si>
   <si>
-    <t>G446V</t>
-  </si>
-  <si>
     <t>Q498I</t>
   </si>
   <si>
-    <t>E484Q</t>
-  </si>
-  <si>
     <t>Y489F</t>
   </si>
   <si>
@@ -102,13 +93,40 @@
   </si>
   <si>
     <t>S494K</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Epsilon</t>
+  </si>
+  <si>
+    <t>K417Y</t>
+  </si>
+  <si>
+    <t>V445L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +160,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,52 +197,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -242,24 +242,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -279,6 +265,53 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -319,7 +352,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14278658536585365"/>
+          <c:y val="5.4240631163708086E-2"/>
+          <c:w val="0.70869060523938576"/>
+          <c:h val="0.82223050521051733"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -381,13 +424,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-BR"/>
@@ -427,30 +470,30 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Planilha1!$G$4:$G$5</c:f>
+                <c:f>Planilha1!$C$23:$C$24</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.12</c:v>
+                    <c:v>0.13214803078675255</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.15</c:v>
+                    <c:v>0.14765293005931868</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Planilha1!$G$4:$G$5</c:f>
+                <c:f>Planilha1!$C$23:$C$24</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.12</c:v>
+                    <c:v>0.13214803078675255</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.15</c:v>
+                    <c:v>0.14765293005931868</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -471,7 +514,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$E$4:$E$5</c:f>
+              <c:f>Planilha1!$A$23:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -485,15 +528,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$F$4:$F$5</c:f>
+              <c:f>Planilha1!$B$23:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.81</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.31442857142857139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,30 +604,30 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Planilha1!$G$4:$G$5</c:f>
+                <c:f>Planilha1!$C$23:$C$24</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.12</c:v>
+                    <c:v>0.13214803078675255</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.15</c:v>
+                    <c:v>0.14765293005931868</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Planilha1!$G$4:$G$5</c:f>
+                <c:f>Planilha1!$C$23:$C$24</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.12</c:v>
+                    <c:v>0.13214803078675255</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.15</c:v>
+                    <c:v>0.14765293005931868</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -592,7 +635,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$E$4:$E$5</c:f>
+              <c:f>Planilha1!$A$23:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -606,15 +649,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$F$4:$F$5</c:f>
+              <c:f>Planilha1!$B$23:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.81</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.31442857142857139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,23 +745,27 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0">
+                  <a:defRPr sz="800" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0">
+                  <a:rPr lang="en-US" sz="800" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>True Positive Rate</a:t>
                 </a:r>
@@ -751,16 +798,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -785,23 +832,27 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0">
+                  <a:defRPr sz="800" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0">
+                  <a:rPr lang="en-US" sz="800" b="1">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>False Positive Rate</a:t>
                 </a:r>
@@ -832,13 +883,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900">
+              <a:defRPr sz="800" b="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -901,14 +954,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>595140</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>187890</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -937,14 +990,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC1CA307-2474-4E18-B4BB-277872DAFC30}" name="Tabela1" displayName="Tabela1" ref="A1:C9" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC1CA307-2474-4E18-B4BB-277872DAFC30}" name="Tabela1" displayName="Tabela1" ref="A1:C9" totalsRowCount="1" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:C8" xr:uid="{AC1CA307-2474-4E18-B4BB-277872DAFC30}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{08C4BCBC-9E87-4E1F-9E30-9BDE02BAEF6A}" name="Variant" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{FE243D80-6D91-4949-A25A-C5EA4B9D5EBB}" name="Recall" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="1" xr3:uid="{08C4BCBC-9E87-4E1F-9E30-9BDE02BAEF6A}" name="Variant" dataDxfId="8" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FE243D80-6D91-4949-A25A-C5EA4B9D5EBB}" name="Recall" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="4">
       <totalsRowFormula>SUBTOTAL(101,B2:B8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E166C3F7-6175-46CB-8B43-EF15B492C76F}" name="Coluna1" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="4" xr3:uid="{E166C3F7-6175-46CB-8B43-EF15B492C76F}" name="Coluna1" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="3">
       <totalsRowFormula>_xlfn.STDEV.P(Tabela1[Recall])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -953,12 +1006,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83548559-C8F5-4E93-B3A6-F1163F2B768F}" name="Tabela13" displayName="Tabela13" ref="A12:C20" totalsRowCount="1" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83548559-C8F5-4E93-B3A6-F1163F2B768F}" name="Tabela13" displayName="Tabela13" ref="A12:C20" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A12:C19" xr:uid="{83548559-C8F5-4E93-B3A6-F1163F2B768F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:C19">
+    <sortCondition descending="1" ref="B12:B19"/>
+  </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A2603236-6B7D-4633-9390-91B99314A261}" name="Variant" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{F7037C53-15E9-41BF-A41B-ADEDACB1AF9D}" name="Recall" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{93784B63-234C-4ADA-BF64-9194B8B7C2C1}" name="Coluna1" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{A2603236-6B7D-4633-9390-91B99314A261}" name="Variant" dataDxfId="17" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F7037C53-15E9-41BF-A41B-ADEDACB1AF9D}" name="Recall" totalsRowFunction="average" dataDxfId="16" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{93784B63-234C-4ADA-BF64-9194B8B7C2C1}" name="Coluna1" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="0">
       <totalsRowFormula>_xlfn.STDEV.P(Tabela13[Recall])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -967,21 +1023,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{686056A0-746C-489E-8159-C1E18B8E6648}" name="Tabela4" displayName="Tabela4" ref="E3:G5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="E3:G5" xr:uid="{686056A0-746C-489E-8159-C1E18B8E6648}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{686056A0-746C-489E-8159-C1E18B8E6648}" name="Tabela4" displayName="Tabela4" ref="A22:C24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A22:C24" xr:uid="{686056A0-746C-489E-8159-C1E18B8E6648}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BA9A1235-4AA8-4A85-BD19-46B362FB152E}" name="Tipo" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{6B8EB1E8-0AB5-426A-8A4F-64B1AE622D89}" name="μ" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C74CA928-9C2D-4108-B269-3C0AF4044A6A}" name="σ" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BA9A1235-4AA8-4A85-BD19-46B362FB152E}" name="Tipo" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{6B8EB1E8-0AB5-426A-8A4F-64B1AE622D89}" name="μ" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{C74CA928-9C2D-4108-B269-3C0AF4044A6A}" name="σ" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F1AA536-CF19-4203-996C-A6AB293EEC4C}" name="Tabela3" displayName="Tabela3" ref="M1:Q15" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="M1:Q15" xr:uid="{4F1AA536-CF19-4203-996C-A6AB293EEC4C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{ACC4257E-B911-4BCB-83F5-866D6C36CDFE}" name="Sistema"/>
+    <tableColumn id="2" xr3:uid="{ED2D272A-9D6E-41D4-A8D8-811D8A320A31}" name="TP"/>
+    <tableColumn id="3" xr3:uid="{3A0B520F-B414-4C89-82BA-405C77F8582C}" name="FN"/>
+    <tableColumn id="4" xr3:uid="{31CF8BA6-371E-4BC2-B995-CA6CFB154631}" name="TN"/>
+    <tableColumn id="5" xr3:uid="{25989871-5D57-41F4-8ED9-4078C4B72CF0}" name="FP"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1019,7 +1089,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1125,7 +1195,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1267,7 +1337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1275,218 +1345,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A632755D-72DD-41AA-A019-DC15084C2A50}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9.77734375" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9.77734375" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
+    <col min="14" max="17" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7">
         <v>0.95</v>
       </c>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>4752</v>
+      </c>
+      <c r="O2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.93</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.95</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>4751</v>
+      </c>
+      <c r="O3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>0.88</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>4423</v>
+      </c>
+      <c r="O4">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>0.85</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>4224</v>
+      </c>
+      <c r="O5">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>0.75</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3555</v>
+      </c>
+      <c r="O6">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7">
+        <v>3266</v>
+      </c>
+      <c r="O7">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.6</v>
+      <c r="B8" s="7">
+        <v>0.60299999999999998</v>
       </c>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="M8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>3016</v>
+      </c>
+      <c r="O8">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.8">
       <c r="A9" s="3"/>
-      <c r="B9" s="1">
+      <c r="B9" s="7">
         <f>SUBTOTAL(101,B2:B8)</f>
-        <v>0.80999999999999983</v>
-      </c>
-      <c r="C9" s="4">
+        <v>0.79957142857142849</v>
+      </c>
+      <c r="C9" s="8">
         <f>_xlfn.STDEV.P(Tabela1[Recall])</f>
-        <v>0.11844227044671085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.13214803078675255</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>2711</v>
+      </c>
+      <c r="Q9">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>2782</v>
+      </c>
+      <c r="Q10">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="M11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11">
+        <v>2937</v>
+      </c>
+      <c r="Q11">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>3238</v>
+      </c>
+      <c r="Q12">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.5</v>
+        <v>8</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.45800000000000002</v>
       </c>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="6">
+        <v>3587</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.46</v>
+      <c r="B14" s="1">
+        <v>0.44400000000000001</v>
       </c>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="6">
+        <v>3752</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15">
+        <v>5001</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.8">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7">
+        <f>SUBTOTAL(101,Tabela13[Recall])</f>
+        <v>0.31442857142857139</v>
+      </c>
+      <c r="C20" s="8">
+        <f>_xlfn.STDEV.P(Tabela13[Recall])</f>
+        <v>0.14765293005931868</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.8">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2">
+    </row>
+    <row r="23" spans="1:3" ht="15.6">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="C23" s="8">
+        <f>_xlfn.STDEV.P(Tabela1[Recall])</f>
+        <v>0.13214803078675255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="7">
         <f>SUBTOTAL(101,Tabela13[Recall])</f>
-        <v>0.34857142857142848</v>
-      </c>
-      <c r="C20" s="4">
+        <v>0.31442857142857139</v>
+      </c>
+      <c r="C24" s="8">
         <f>_xlfn.STDEV.P(Tabela13[Recall])</f>
-        <v>0.14176727120063179</v>
+        <v>0.14765293005931868</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1718,11 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>